--- a/Process/Timesheet/PTW-Timesheet 1 (2).xlsx
+++ b/Process/Timesheet/PTW-Timesheet 1 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2134DCA8-1613-46B0-9776-D1B11236B85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FE4778-CBF0-43A0-96D0-A21CEC3ECEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
   <si>
     <t>Resource Name</t>
   </si>
@@ -509,6 +509,12 @@
     <t>Lunch and break 1hr 15 mins, self exploration - entity frame work - 1hr total hrs - 2 hrs 15 mins</t>
   </si>
   <si>
+    <t>Entity, Date model and relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Head and Co-ordinator Dessign flow </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Data model Relationship </t>
   </si>
   <si>
@@ -539,6 +545,27 @@
     <t>Prepared for code review - 1 hour , others - 90 mins</t>
   </si>
   <si>
+    <t>Entity data model operation for Trainer</t>
+  </si>
+  <si>
+    <t>Entity datamodel ,artributes,relationship for trainer</t>
+  </si>
+  <si>
+    <t>Discussion with team - 20 mins, Worked on entity data model for trainer -3 hours ,meeting with Rafi- 100 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity data model </t>
+  </si>
+  <si>
+    <t>entered sample data for head , co ordinator, trainee , trainer.</t>
+  </si>
+  <si>
+    <t>discussion with team -20min, reviewed the head and co ordinator UI, meeting rafi 100 mins , entering sample data for head,co ordinator, trainer , trainee - 3 hrs, editing the changes in UI ( head , co ordinator, trainer, trainee).</t>
+  </si>
+  <si>
+    <t>lunch and break 1.30hrs</t>
+  </si>
+  <si>
     <t>Data model Relationship</t>
   </si>
   <si>
@@ -549,6 +576,9 @@
   </si>
   <si>
     <t>Break - 1 hr</t>
+  </si>
+  <si>
+    <t>Entity Data model and its Relationship</t>
   </si>
   <si>
     <t xml:space="preserve">Reviewed acceptance criteria for Trainee, Trainer, Training co ordinator, Trainnig Head. </t>
@@ -2477,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996EE506-C210-4575-ABFA-32B522DBF415}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15"/>
@@ -2552,10 +2582,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="14" t="s">
@@ -2572,17 +2602,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="13"/>
@@ -2592,17 +2622,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -2611,17 +2641,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="12" t="s">
-        <v>159</v>
+      <c r="E7" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -2630,17 +2660,17 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="13" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -2649,19 +2679,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>94</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -2670,17 +2698,17 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -2689,7 +2717,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>112</v>
@@ -2710,19 +2738,19 @@
         <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G12" s="4"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet 1 (2).xlsx
+++ b/Process/Timesheet/PTW-Timesheet 1 (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FE4778-CBF0-43A0-96D0-A21CEC3ECEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F046C6B7-8E44-4739-A968-F1FC7225202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="182">
   <si>
     <t>Resource Name</t>
   </si>
@@ -515,6 +515,12 @@
     <t xml:space="preserve">Training Head and Co-ordinator Dessign flow </t>
   </si>
   <si>
+    <t>Team Disscussion 20 mins about design flow, Worked on Training Head and co-ordinator design flow 120 mins, Meeting with client (Rafi) - 90mins, Team Discussion about Design and Entity - 20mins, Alteration in Head and Co-ordinator Design flow - 120mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lunch and Tea break-90min                         </t>
+  </si>
+  <si>
     <t xml:space="preserve"> Data model Relationship </t>
   </si>
   <si>
@@ -579,6 +585,12 @@
   </si>
   <si>
     <t>Entity Data model and its Relationship</t>
+  </si>
+  <si>
+    <t>Entity datamodel  for all users</t>
+  </si>
+  <si>
+    <t>Discussion with team -20min, meeting rafi -1.30hours , Entity data model for trainee and integrated with others-3 hours</t>
   </si>
   <si>
     <t xml:space="preserve">Reviewed acceptance criteria for Trainee, Trainer, Training co ordinator, Trainnig Head. </t>
@@ -2507,8 +2519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996EE506-C210-4575-ABFA-32B522DBF415}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15"/>
@@ -2589,10 +2601,10 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="14" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="18"/>
@@ -2602,17 +2614,17 @@
         <v>17</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="13"/>
@@ -2622,17 +2634,17 @@
         <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>101</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -2641,17 +2653,17 @@
         <v>20</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="13" t="s">
-        <v>161</v>
+      <c r="E7" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -2660,17 +2672,17 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -2679,17 +2691,17 @@
         <v>22</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -2698,17 +2710,17 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -2717,20 +2729,18 @@
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>114</v>
-      </c>
+      <c r="E11" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="87" customHeight="1">
@@ -2738,19 +2748,19 @@
         <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>116</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G12" s="4"/>
     </row>

--- a/Process/Timesheet/PTW-Timesheet 1 (2).xlsx
+++ b/Process/Timesheet/PTW-Timesheet 1 (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702874B0-C5DF-4D94-A0C5-76C2DCBFBB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C75EB9F0-D2F7-4D68-B3A8-A699565A6813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-4-22" sheetId="40" r:id="rId1"/>
@@ -25,8 +25,11 @@
     <sheet name="18-04-22" sheetId="51" r:id="rId10"/>
     <sheet name="19-04-22 " sheetId="52" r:id="rId11"/>
     <sheet name="20-04-22" sheetId="53" r:id="rId12"/>
+    <sheet name="21-04-22" sheetId="54" r:id="rId13"/>
+    <sheet name="22-04-22" sheetId="55" r:id="rId14"/>
+    <sheet name="23-04-22" sheetId="56" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="418">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1129,12 +1132,244 @@
   <si>
     <t>lunch and others 90mins, Angular component binding - 1 hr, WebApi - 1hr, softskill session - 1hr</t>
   </si>
+  <si>
+    <t>web api(Department)</t>
+  </si>
+  <si>
+    <t>review the services,</t>
+  </si>
+  <si>
+    <t>meeting with team-20mins (spliting the teams),meeting with rafi-61 mins ,meeting with team work completion-20mins,working on web api(review)-2hrs,totla time spent-3hrs 41 mins</t>
+  </si>
+  <si>
+    <t>exploring on web api(2 hrs),break-40 mins,total -2hrs 40 mins</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , 
+Client meeting - 60 mins ,
+Team meeting - 30mins,
+Services and classes - 2 hrs, 
+Angular - 3 hrs</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>Layout for TMS except Head navbar</t>
+  </si>
+  <si>
+    <t>Layout for Head Navbar</t>
+  </si>
+  <si>
+    <t>Team Discussion about Work progress - 20mins, Meeting with Rafi - 60mins, Team Discussion for Work plan and team split - 30mins, Working and  Alteration on Head Layout 140mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch and Tea break-75min  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on Web API </t>
+  </si>
+  <si>
+    <t>Refining System Architecture and Interaction for HLD</t>
+  </si>
+  <si>
+    <t>20 mins : Team discussion, 1hr : Meeting With Rafi,30mis : Team discussion and clarifying doubts,1.30 hr : Refining System Architecture and Interaction for HLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1hr : Exploring about Web API and connecting the DB, 1.30 mins : Lunch and Break </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layouts of TMS Co-ordinator </t>
+  </si>
+  <si>
+    <t>Layout for head nav bar</t>
+  </si>
+  <si>
+    <t>Team discussion-20 min,Meeting with Rafi-60 min,Discussion about Database diagram-30 min,Team discussion and Doubt-30 min</t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min,Boot strap about nav bar explortion-2 hours</t>
+  </si>
+  <si>
+    <t>Learning Web Api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewed Services </t>
+  </si>
+  <si>
+    <t>Team discussion - 20 mins, Worked on Services(Department and role) - 2 hours, Meeting with Rafi - 1 hour, Doubt clarification meeting - 30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watched Web api tutorial - 1 hour , Others(lunch and break) - 1 hour </t>
+  </si>
+  <si>
+    <t>Database diagram for TMS</t>
+  </si>
+  <si>
+    <t>Team Discussion-20mins
+Review Meeting with Rafi-1hr
+Refining the database diagram-10mins
+Understanding the services and methods in services-30mins
+Understanding the system architecture and interaction -30mins
+Team Discussion-30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lunch &amp; Tea break - 1.5 hr
+Exploration on Web API - 1 hr</t>
+  </si>
+  <si>
+    <t>layout for ( co-ordinator,trainer,trainee)</t>
+  </si>
+  <si>
+    <t>layout for training head</t>
+  </si>
+  <si>
+    <t>team disussion (progress) -20mim, meeting with rafi-60min, team discussion (team segeration)-30min, working on layout for training head-150min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch -1.15hrs </t>
+  </si>
+  <si>
+    <t>Working in layout for TMS</t>
+  </si>
+  <si>
+    <t>System architecture for HLD</t>
+  </si>
+  <si>
+    <t>Team discussion - 20 mins, meeting with rafi - 1hr,Team meeting and doubt clarification- 30 mins, worked with system architecture and interactions in HLD - 1:30 hr</t>
+  </si>
+  <si>
+    <t>Explored on bootstrap - 40 mins,break - 1 hr</t>
+  </si>
+  <si>
+    <t>Team disussion -20mim, Meeting with rafi-  1hr, Team discussion-30min, learned bootstrap basics- 40 mins, working on layout for TMS - 1.45 mins</t>
+  </si>
+  <si>
+    <t>Lunch -35mins,Break-20 min</t>
+  </si>
+  <si>
+    <t>Building service for Department</t>
+  </si>
+  <si>
+    <t>Creating class files for all services</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 60 mins ,Class files modification - 2 hrs, Updating MOM - 15 mins</t>
+  </si>
+  <si>
+    <t>lunch and others 90mins, how to use logger - 1hr and Scaffolding in VS code - 45 mins</t>
+  </si>
+  <si>
+    <t>working on web api(department)-1 hr ,meeting with rafi-1 hr ,meeting with team 20 mins,working on web api(deptment)-2hr,Total Time Spent-4 hrs 20 mins</t>
+  </si>
+  <si>
+    <t>mail for db remoting 20 mins,fun friday 1 hr 26 mins,break 40 mins,Total -2 hr 26 mins</t>
+  </si>
+  <si>
+    <t>visual studio code - .Net SDK is not found in VSCode - Stack Overflow</t>
+  </si>
+  <si>
+    <t>Team Discussion about Work progress - 20mins, Meeting with Rafi - 60mins, Working and  Alteration on Head Dashboard 120mins</t>
+  </si>
+  <si>
+    <t>Lunch and Tea break-75min , Fun Friday Activity - 90mins</t>
+  </si>
+  <si>
+    <t>web API(Role)</t>
+  </si>
+  <si>
+    <t>Review the Entire Services</t>
+  </si>
+  <si>
+    <t>1hr : Meeting with Rafi,20 mins : Team Meeting, 35 mins : Review the Services,30 mins : web API ef installation.</t>
+  </si>
+  <si>
+    <t>1 hr : Chain of reponsibility,1.30 mins Fun friday,1.30 mins : lunch and break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Layouts of TMS dashboard </t>
+  </si>
+  <si>
+    <t>Layout for Login</t>
+  </si>
+  <si>
+    <t>Team discussion-20 min,Meeting with Rafi-60 min,Discussion on Layout-30 min,Team discussion-30 min, Review of service-30 min</t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min,Fun friday -2 hours, Layout Exploration -1 hours</t>
+  </si>
+  <si>
+    <t>Web Api exploration</t>
+  </si>
+  <si>
+    <t>Team meeting - 30 mins,Meeting with Rafi - 1 hour,  Services review - 30 mins, Created Namespace ,classes and properties in VS code - 30 mins</t>
+  </si>
+  <si>
+    <t>Friday activities - 1 hour 30 mins, Others (Lunch and break) - 1 hour 30 mins , Web api Tutorial - 1 hour</t>
+  </si>
+  <si>
+    <t>Team Discussion(to know the progress of the team )-20mins
+Review Meeting with Rafi-1hr
+web api (review service)-1hr
+Team Discussion-30 mins,Created Namespace ,classes and properties in VS code - 30 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lunch &amp; Tea break - 1.5 hr
+Fun session with Training team-1.5hr</t>
+  </si>
+  <si>
+    <t>registration for trainee and trainer</t>
+  </si>
+  <si>
+    <t>registration for co-Ordinator</t>
+  </si>
+  <si>
+    <t>team disussion  -30mim, meeting with rafi-60min,  working on layout for registration page( head)-90min, reviewed the services-35min</t>
+  </si>
+  <si>
+    <t>lunch -1.15hrs softskill(fun friday activity) with TN team-120min</t>
+  </si>
+  <si>
+    <t>Building Api for Department Service</t>
+  </si>
+  <si>
+    <t>Corrected operation files for all services</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 60 mins ,Service operations modification - 1 hrs, Updating MOM - 15 mins</t>
+  </si>
+  <si>
+    <t>lunch and others 90mins, Softskill session - 2hr</t>
+  </si>
+  <si>
+    <t>Dashboard and Layout Responsiveness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting -30 min , Client meeting - 60 mins ,1hr : review the all Layout and clarifying the doubt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 mins : lunch and break time </t>
+  </si>
+  <si>
+    <t>Lunch and Break-90 min</t>
+  </si>
+  <si>
+    <t>Department Service Api</t>
+  </si>
+  <si>
+    <t>Team meeting -30 min , Client meeting - 60 mins ,Updating MOM - 15min, Design pattern - 55 mins, Adding (Context,Controller,Httpverbs) in department service</t>
+  </si>
+  <si>
+    <t>lunch and breaks - 90mins</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +1498,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1364,10 +1607,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1484,6 +1728,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,8 +1738,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2407,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95F4A8A-E29B-4E18-8E69-E97113C33CFB}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2665,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE04E62-3F20-49FE-92C9-574EE772D882}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2707,14 +2965,14 @@
       <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="16" t="s">
@@ -2898,6 +3156,740 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE4816C-CAE5-4525-AB01-5036960B55BC}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="63.75">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7" ht="90.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="78.75" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="71.25" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="51">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="135" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="66" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="89.25">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="63" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D2D3FBA-C93D-4333-B7E1-C7BA11A34680}">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="30">
+      <c r="A1" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="129.75" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="V2" s="42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:22" ht="101.25" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:22" ht="131.25" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:22" ht="113.25" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" ht="77.25" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" ht="135" customHeight="1">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" ht="95.25" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" ht="63.75">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" ht="63" customHeight="1">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" ht="57.75" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{120B6D02-1A0C-47E1-B798-6049D6680E11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B509DB2-7281-4C29-BE82-B5795AEB1608}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45">
+      <c r="A1" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="63.75">
+      <c r="A2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="104.25" customHeight="1">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="108" customHeight="1">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="96" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="90" customHeight="1">
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="357">
+      <c r="A8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="133.5" customHeight="1">
+      <c r="A9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="77.25" customHeight="1">
+      <c r="A10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="191.25">
+      <c r="A11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A12" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
